--- a/April'21/10.04.2021/Daily Sales Info.xlsx
+++ b/April'21/10.04.2021/Daily Sales Info.xlsx
@@ -14856,8 +14856,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61627,8 +61627,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
